--- a/src/assets/files/user_master sample.xlsx
+++ b/src/assets/files/user_master sample.xlsx
@@ -34,10 +34,10 @@
     <t>Is Auditor</t>
   </si>
   <si>
-    <t>raju</t>
-  </si>
-  <si>
-    <t>raju@mail.com</t>
+    <t>yoga</t>
+  </si>
+  <si>
+    <t>yogalaksmichandran@mail.com</t>
   </si>
   <si>
     <t>raju flat</t>
@@ -49,7 +49,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>karthik</t>
+    <t>harini</t>
   </si>
   <si>
     <t>karthi@mail.com</t>
@@ -66,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -82,34 +82,12 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -119,37 +97,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,14 +112,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,40 +202,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,19 +233,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,151 +377,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +446,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,30 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,40 +524,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,130 +547,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -678,10 +678,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,23 +1006,23 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="18.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="21.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="21.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1042,10 +1042,10 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>89984689</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -1062,7 +1062,7 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>56756578</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1080,10 +1080,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="raju@mail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="yogalaksmichandran@mail.com" tooltip="mailto:yogalaksmichandran@mail.com"/>
     <hyperlink ref="C3" r:id="rId2" display="karthi@mail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/assets/files/user_master sample.xlsx
+++ b/src/assets/files/user_master sample.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Full Name</t>
   </si>
@@ -31,41 +31,23 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Is Auditor</t>
-  </si>
-  <si>
     <t>yoga</t>
   </si>
   <si>
-    <t>yogalaksmichandran@mail.com</t>
-  </si>
-  <si>
     <t>raju flat</t>
   </si>
   <si>
     <t>INDIA</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>harini</t>
-  </si>
-  <si>
-    <t>karthi@mail.com</t>
-  </si>
-  <si>
-    <t>karthi flat</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>karthi@mail.com1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,14 +60,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,14 +108,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -416,87 +390,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>89984689</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1">
-        <v>56756578</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:yogalaksmichandran@mail.com"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/assets/files/user_master sample.xlsx
+++ b/src/assets/files/user_master sample.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Full Name</t>
   </si>
@@ -31,16 +31,7 @@
     <t>Country</t>
   </si>
   <si>
-    <t>yoga</t>
-  </si>
-  <si>
-    <t>raju flat</t>
-  </si>
-  <si>
-    <t>INDIA</t>
-  </si>
-  <si>
-    <t>karthi@mail.com1</t>
+    <t>sample@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -393,16 +384,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -423,20 +414,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>89984689</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
